--- a/biology/Médecine/Médaille_McLaughlin/Médaille_McLaughlin.xlsx
+++ b/biology/Médecine/Médaille_McLaughlin/Médaille_McLaughlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_McLaughlin</t>
+          <t>Médaille_McLaughlin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société royale du Canada a créé en 1978 la médaille McLaughlin grâce à la générosité de la Fondation R. Samuel McLaughlin, qui souhaitait souligner les réalisations émérites en matière de recherche médicale au Canada.
 La médaille est attribuée en reconnaissance d'une importante activité de recherche d'une constante excellence dans tout domaine des sciences médicales.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_McLaughlin</t>
+          <t>Médaille_McLaughlin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Lauréats[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1979 - Bernard Belleau
 1980 - William Robert Bruce
